--- a/biology/Botanique/Dimorphandra_polyandra/Dimorphandra_polyandra.xlsx
+++ b/biology/Botanique/Dimorphandra_polyandra/Dimorphandra_polyandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dimorphandra polyandra est une espèce d'arbre appartenant à la famille des Fabaceae (sous-famille des Caesalpinioideae) originaire d'Amérique centrale et d'Amérique du Sud.
-Il est connu en Guyane sous le nom de Mora de Saint-Laurent (Créole)[4], Aieoueko (Nenge tongo), mais aussi Dakama au Guyana, Anjama[5], Akajuran au Suriname et Faveira-Vermelha, Faveira-camurin au Brésil[6].
+Il est connu en Guyane sous le nom de Mora de Saint-Laurent (Créole), Aieoueko (Nenge tongo), mais aussi Dakama au Guyana, Anjama, Akajuran au Suriname et Faveira-Vermelha, Faveira-camurin au Brésil.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dimorphandra polyandra est un arbre de taille petite à moyenne, haut de 5–10 m, à rameaux sulqués, subanguleux.
 Les feuilles sont bipennées, avec 3-5 paires de pennes, et 7–12 paires de folioles par pennes.
@@ -521,7 +535,7 @@
 Les fleurs sont rouges, avec des pétales glabres.
 Les staminodes sont complètement libres, laminaires ou filiformes, à apex à peine dilaté, étroitement spathulé.
 Les anthère sont rudimentaires, et l'ovaire velu.
-Le fruit est une gousse plate, glabre, nettement falciforme à suborbiculaire, mesurant 10-16 cm sur environ 7 cm déhiscente de manière explosive le long d'une suture unilatérale allongée[7],[8].
+Le fruit est une gousse plate, glabre, nettement falciforme à suborbiculaire, mesurant 10-16 cm sur environ 7 cm déhiscente de manière explosive le long d'une suture unilatérale allongée,.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Dimorphandra polyandra au Venezuela (Amazonas : Maroa, San Antonio, San Carlos de Río Negro), au Guyana, au Suriname, en Guyane, et au Brésil (Amazonas)[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Dimorphandra polyandra au Venezuela (Amazonas : Maroa, San Antonio, San Carlos de Río Negro), au Guyana, au Suriname, en Guyane, et au Brésil (Amazonas).
 </t>
         </is>
       </c>
@@ -581,12 +597,14 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Dimorphandra polyandra au Venezuela, dans les savanes sur sable blanc, et les caatinga du Río Negro 50–200 m d'altitude[8].
-En Guyane, Dimorphandra polyandra est une espèce dominante caractéristique des habitats de « Forêts sur sables blancs à mora de Saint-Laurent et bois rouge »[4].
-Dimorphandra polyandra présente des endomycorhizes et non pas d'ectomycorhizes[9]alors que c'est habituellement le cas des espèces poussant sur les podzols tropicaux très pauvres[10].
-Le tronc mort de Dimorphandra polyandra est l'hôte du champignon Phellinus amazonicus Campos-Santana &amp; Decock[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Dimorphandra polyandra au Venezuela, dans les savanes sur sable blanc, et les caatinga du Río Negro 50–200 m d'altitude.
+En Guyane, Dimorphandra polyandra est une espèce dominante caractéristique des habitats de « Forêts sur sables blancs à mora de Saint-Laurent et bois rouge ».
+Dimorphandra polyandra présente des endomycorhizes et non pas d'ectomycorhizesalors que c'est habituellement le cas des espèces poussant sur les podzols tropicaux très pauvres.
+Le tronc mort de Dimorphandra polyandra est l'hôte du champignon Phellinus amazonicus Campos-Santana &amp; Decock.
 </t>
         </is>
       </c>
@@ -615,11 +633,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de Dimorphandra polyandra (densité : 0,69 à 0,77) est de couleur brun cuivré, à grain grossier, moyennement durable, sensible aux termites, plutôt stable, et peut être employé en menuiserie intérieure et extérieure, pour la charpente légère, les meubles ou la confection de caisses[5],[12].
-Les extraits d'écorce et de feuilles de Dimorphandra polyandra ont été testés pour lutter contre les larves d’Aedes aegypti[13].
-Au Suriname et au Guyana, l'écorce d'une espèce proche (Dimorphandra conjugata (Splitg.) Sandwith) sert à soigner les ulcères, l'asthme et la dysenterie, pour laver les coupures et les zones infectées par la "démangeaison du sol" entre les orteils[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de Dimorphandra polyandra (densité : 0,69 à 0,77) est de couleur brun cuivré, à grain grossier, moyennement durable, sensible aux termites, plutôt stable, et peut être employé en menuiserie intérieure et extérieure, pour la charpente légère, les meubles ou la confection de caisses,.
+Les extraits d'écorce et de feuilles de Dimorphandra polyandra ont été testés pour lutter contre les larves d’Aedes aegypti.
+Au Suriname et au Guyana, l'écorce d'une espèce proche (Dimorphandra conjugata (Splitg.) Sandwith) sert à soigner les ulcères, l'asthme et la dysenterie, pour laver les coupures et les zones infectées par la "démangeaison du sol" entre les orteils.
 </t>
         </is>
       </c>
@@ -648,9 +668,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1916, le botaniste Raymond Benoist propose le protologue suivant[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1916, le botaniste Raymond Benoist propose le protologue suivant :
 « Dimorphandra polyandra R. Ben. nov. sp.
 Arbor excelsa, ramis griseis. Folia alterna paripinnata, pinnis 3-4-jugis, rachi glabra supra canaliculata. Foliola 10-12-juga, glabra, oblonga, ad basim oblique attenuata, ad apicem rotundata. Flores numerosi, rubri,spicati. Bracteolae minutas. Calyx glaber, ad basim tubuloso-campanulatus, ad apicem 5-dentatus. Petala 5 glabra, oblonga, ad basim attenuata, ad apicem obtusa rubra. Androcseum etritaminodiis cum petalis alternis, linearibus, ad minutis ; 10 staminibus fertilibus inasqualibus.
 Mesures : Foliole 40 X 14 mm. Inflorescence longue de 25 cm.
@@ -658,7 +680,7 @@
 Cet arbre atteint 30 a 40 mètres de hauteur et un diamètre à la base du tronc de 80 cm. et plus.
 Cette espèce se distingue de tous les autres Dimorphandra par son androcée composé de 5 staminodes et de 10 étamines fertiles. Les feuilles ressemblent beaucoup à celles du D. vernicosa Spruce, mais ne sont pas luisantes, vernissées comme chez cette espèce. Elles sont bipinnées a 3 ou 4 paires de segments. Les folioles sont au nombre de 10-12 paires a chaque segment, atténuées obliquement à la base, arrondies au sommet. La gousse est large, aplatie.
 Aucun Dimorphandra n'a encore été indique comme habitant la Guyane française. »
-— Raymond Benoist, 1916[1].</t>
+— Raymond Benoist, 1916.</t>
         </is>
       </c>
     </row>
